--- a/nodes_source_analyses/energy/energy_heat_burner_waste_mix.central_producer.xlsx
+++ b/nodes_source_analyses/energy/energy_heat_burner_waste_mix.central_producer.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11208"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marliekeverweij/Projects/etdataset/nodes_source_analyses/energy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABC20C96-C2A4-C340-BC11-0817C04B60B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F68A807C-42F2-C046-ABD4-51B388D10B66}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="26820" tabRatio="762" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="26820" tabRatio="762" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="96">
   <si>
     <t>Source</t>
   </si>
@@ -372,6 +372,9 @@
       <t>/year</t>
     </r>
   </si>
+  <si>
+    <t>See https://github.com/quintel/documentation/blob/master/general/cost_calculations.md#weighted-average-cost-of-capital</t>
+  </si>
 </sst>
 </file>
 
@@ -383,12 +386,19 @@
     <numFmt numFmtId="166" formatCode="0.000"/>
     <numFmt numFmtId="167" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="28">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Lettertype hoofdtekst"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -884,576 +894,577 @@
   </borders>
   <cellStyleXfs count="279">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="161">
+  <cellXfs count="162">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="17" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="12" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="23" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="24" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="178" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="16" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="16" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="11" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="178" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="178" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="11" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="11" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="22" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="23" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="178" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="27" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="49" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="15" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="11" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="10" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="178" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="11" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="2" fontId="10" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="178" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="178" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="10" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="26" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="2" fontId="10" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="178" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="10" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="279">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2641,8 +2652,8 @@
   </sheetPr>
   <dimension ref="B1:K30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
@@ -2667,28 +2678,28 @@
       <c r="G1" s="31"/>
     </row>
     <row r="2" spans="2:11">
-      <c r="B2" s="150" t="s">
+      <c r="B2" s="152" t="s">
         <v>72</v>
       </c>
-      <c r="C2" s="151"/>
-      <c r="D2" s="151"/>
-      <c r="E2" s="152"/>
+      <c r="C2" s="153"/>
+      <c r="D2" s="153"/>
+      <c r="E2" s="154"/>
       <c r="F2" s="31"/>
       <c r="G2" s="31"/>
     </row>
     <row r="3" spans="2:11">
-      <c r="B3" s="153"/>
-      <c r="C3" s="154"/>
-      <c r="D3" s="154"/>
-      <c r="E3" s="155"/>
+      <c r="B3" s="155"/>
+      <c r="C3" s="156"/>
+      <c r="D3" s="156"/>
+      <c r="E3" s="157"/>
       <c r="F3" s="31"/>
       <c r="G3" s="31"/>
     </row>
     <row r="4" spans="2:11" ht="35" customHeight="1">
-      <c r="B4" s="156"/>
-      <c r="C4" s="157"/>
-      <c r="D4" s="157"/>
-      <c r="E4" s="158"/>
+      <c r="B4" s="158"/>
+      <c r="C4" s="159"/>
+      <c r="D4" s="159"/>
+      <c r="E4" s="160"/>
       <c r="F4" s="31"/>
       <c r="G4" s="31"/>
     </row>
@@ -2766,7 +2777,7 @@
       <c r="F10" s="32"/>
       <c r="G10" s="32"/>
       <c r="H10" s="27"/>
-      <c r="I10" s="160" t="s">
+      <c r="I10" s="151" t="s">
         <v>73</v>
       </c>
       <c r="J10" s="41"/>
@@ -2786,7 +2797,7 @@
       <c r="F11" s="32"/>
       <c r="G11" s="32"/>
       <c r="H11" s="32"/>
-      <c r="I11" s="160" t="s">
+      <c r="I11" s="151" t="s">
         <v>73</v>
       </c>
       <c r="J11" s="113"/>
@@ -2807,7 +2818,7 @@
       <c r="F12" s="32"/>
       <c r="G12" s="32"/>
       <c r="H12" s="32"/>
-      <c r="I12" s="160" t="s">
+      <c r="I12" s="151" t="s">
         <v>73</v>
       </c>
       <c r="J12" s="113"/>
@@ -2851,7 +2862,7 @@
       <c r="F15" s="32"/>
       <c r="G15" s="32"/>
       <c r="H15" s="32"/>
-      <c r="I15" s="160" t="s">
+      <c r="I15" s="151" t="s">
         <v>73</v>
       </c>
       <c r="J15" s="113"/>
@@ -2922,7 +2933,7 @@
       <c r="F19" s="32"/>
       <c r="G19" s="32"/>
       <c r="H19" s="32"/>
-      <c r="I19" s="160" t="s">
+      <c r="I19" s="151" t="s">
         <v>73</v>
       </c>
       <c r="J19" s="113"/>
@@ -2942,7 +2953,7 @@
       <c r="F20" s="32"/>
       <c r="G20" s="32"/>
       <c r="H20" s="32"/>
-      <c r="I20" s="160" t="s">
+      <c r="I20" s="151" t="s">
         <v>73</v>
       </c>
       <c r="J20" s="113"/>
@@ -2971,12 +2982,14 @@
       </c>
       <c r="D22" s="19"/>
       <c r="E22" s="43">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="F22" s="32"/>
       <c r="G22" s="32"/>
       <c r="H22" s="32"/>
-      <c r="I22" s="160"/>
+      <c r="I22" s="161" t="s">
+        <v>95</v>
+      </c>
       <c r="J22" s="113"/>
     </row>
     <row r="23" spans="2:10" ht="17" thickBot="1">
@@ -3035,7 +3048,7 @@
       <c r="F26" s="32"/>
       <c r="G26" s="32"/>
       <c r="H26" s="32"/>
-      <c r="I26" s="160" t="s">
+      <c r="I26" s="151" t="s">
         <v>73</v>
       </c>
       <c r="J26" s="113"/>
@@ -3055,7 +3068,7 @@
       <c r="F27" s="32"/>
       <c r="G27" s="32"/>
       <c r="H27" s="32"/>
-      <c r="I27" s="160" t="s">
+      <c r="I27" s="151" t="s">
         <v>73</v>
       </c>
       <c r="J27" s="113"/>
@@ -3075,7 +3088,7 @@
       <c r="F28" s="32"/>
       <c r="G28" s="32"/>
       <c r="H28" s="32"/>
-      <c r="I28" s="160" t="s">
+      <c r="I28" s="151" t="s">
         <v>73</v>
       </c>
       <c r="J28" s="113"/>
@@ -3124,7 +3137,7 @@
   </sheetPr>
   <dimension ref="B1:K19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
@@ -3417,7 +3430,7 @@
       </c>
       <c r="D17" s="29"/>
       <c r="E17" s="29"/>
-      <c r="F17" s="159" t="s">
+      <c r="F17" s="150" t="s">
         <v>94</v>
       </c>
       <c r="G17" s="87">
